--- a/config_1.11/activity_ty_task_config.xlsx
+++ b/config_1.11/activity_ty_task_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5658,7 +5658,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>271,272,273,274,275,276,277,278</t>
+    <t>97,98,99,100,101,102,103,104,270</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6296,7 +6296,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6723,7 +6723,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7217,8 +7217,8 @@
   <dimension ref="A1:W279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A272" sqref="A272:D279"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="A271:D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_1.11/activity_ty_task_config.xlsx
+++ b/config_1.11/activity_ty_task_config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="775">
   <si>
     <t>index|索引</t>
   </si>
@@ -4245,9 +4245,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <r>
       <t>3</t>
     </r>
@@ -4401,6 +4398,230 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_task_nor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"game_Fishing3DHall",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_bg_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达300万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达500万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意消消乐游戏单笔赢金到达1000万</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获20条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获30条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获100条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在3D捕鱼中捕获200条鱼</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除10个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在水果消消乐中累计消除20个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>在水果消消乐中累计消除30个西瓜</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -4413,10 +4634,27 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>在水果消消乐中累计消除200个西瓜</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值任意金额1次</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -4432,20 +4670,212 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,1,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_bay","jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>230,231,232,233,234,235,236,237,238,239,240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>241,242,243,244,245,246,247,248,249,250,251</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值100元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值300元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值800元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1200元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值1500元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值2000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -4461,16 +4891,740 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,20000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,100000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000,200000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300000,300000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000,800000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200000,1000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500000,1500000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,2000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"","可以在小游戏苹果大战中使用",</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,5000000,1,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","可以在小游戏苹果大战中使用",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc|描述</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","水滴",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","5元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","10元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","20元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"","","50元优惠券",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"shop_gold_sum",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>60000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>500000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>0</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>act_task_nor</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计充值5000元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值48</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值198</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值2000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>累计充值3000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>500000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000,</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>97,98,99,100,101,102,103,104,270</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除1个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除3个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除5个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>在西游消消乐中累计消除10个孙悟空</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -4478,1187 +5632,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>300,</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>500,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>1000,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>50,</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>50,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"game_Fishing3DHall",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>fkfl_bg_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达300万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达500万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意消消乐游戏单笔赢金到达1000万</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>每日福利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获20条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获30条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获100条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在3D捕鱼中捕获200条鱼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除10个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除20个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除30个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除50个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除100个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>在水果消消乐中累计消除200个西瓜</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值任意金额1次</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0,1,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_bay","jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>230,231,232,233,234,235,236,237,238,239,240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>241,242,243,244,245,246,247,248,249,250,251</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值100元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值300元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值800元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1200元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值1500元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值2000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,20000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,100000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>200000,200000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>300000,300000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>800000,800000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200000,1000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500000,1500000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000000,2000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"","可以在小游戏苹果大战中使用",</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,5000000,1,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_5_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_10_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_20_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-  </si>
-  <si>
-    <t>"jing_bi","prop_tiny_game_coin","obj_50_coupon",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","可以在小游戏苹果大战中使用",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc|描述</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","水滴",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","5元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","5元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","10元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","20元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","20元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"","","50元优惠券",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"shop_gold_sum",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jing_bi",</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>60000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>80000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>500000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000,</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>98</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>累计充值5000元</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值48</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值198</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值500</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值2000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>累计充值3000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>00,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>500000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>000,</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>97,98,99,100,101,102,103,104,270</t>
+    <t>免费话费</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6296,7 +6286,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6512,13 +6502,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C12" s="38" t="s">
         <v>198</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>656</v>
+        <v>774</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -6535,7 +6525,7 @@
         <v>199</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>656</v>
+        <v>774</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -6702,7 +6692,7 @@
         <v>591</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="D23" s="38" t="s">
         <v>587</v>
@@ -6723,7 +6713,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="G12" sqref="A12:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6982,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -7002,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -7042,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="44" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -7217,8 +7207,8 @@
   <dimension ref="A1:W279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="A271:D271"/>
+      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231:H252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7274,7 +7264,7 @@
         <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>445</v>
@@ -10172,7 +10162,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="41" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H95" s="41" t="s">
         <v>286</v>
@@ -10221,7 +10211,7 @@
         <v>1000737</v>
       </c>
       <c r="C97" s="66" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="D97" s="41" t="s">
         <v>292</v>
@@ -10233,21 +10223,21 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="H97" s="41" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="I97" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J97" s="50" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="K97" s="41"/>
       <c r="L97" s="41"/>
       <c r="M97" s="41" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.15">
@@ -10258,10 +10248,10 @@
         <v>1000737</v>
       </c>
       <c r="C98" s="66" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="D98" s="41" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="E98" s="13">
         <v>2</v>
@@ -10270,16 +10260,16 @@
         <v>1</v>
       </c>
       <c r="G98" s="41" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="H98" s="41" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="I98" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J98" s="50" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="K98" s="41"/>
       <c r="L98" s="41"/>
@@ -10292,10 +10282,10 @@
         <v>1000737</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="D99" s="41" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="E99" s="13">
         <v>3</v>
@@ -10304,16 +10294,16 @@
         <v>1</v>
       </c>
       <c r="G99" s="41" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="H99" s="41" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="I99" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J99" s="50" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="K99" s="41"/>
       <c r="L99" s="41"/>
@@ -10326,10 +10316,10 @@
         <v>1000737</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="D100" s="41" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="E100" s="13">
         <v>4</v>
@@ -10338,16 +10328,16 @@
         <v>1</v>
       </c>
       <c r="G100" s="41" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H100" s="41" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="I100" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J100" s="50" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="K100" s="41"/>
       <c r="L100" s="41"/>
@@ -10360,7 +10350,7 @@
         <v>1000737</v>
       </c>
       <c r="C101" s="66" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="D101" s="41" t="s">
         <v>293</v>
@@ -10372,16 +10362,16 @@
         <v>1</v>
       </c>
       <c r="G101" s="41" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H101" s="41" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="I101" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J101" s="50" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="K101" s="41"/>
       <c r="L101" s="41"/>
@@ -10394,10 +10384,10 @@
         <v>1000737</v>
       </c>
       <c r="C102" s="66" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="D102" s="41" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="E102" s="13">
         <v>6</v>
@@ -10406,16 +10396,16 @@
         <v>1</v>
       </c>
       <c r="G102" s="41" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="H102" s="41" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="I102" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J102" s="50" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="K102" s="41"/>
       <c r="L102" s="41"/>
@@ -10428,10 +10418,10 @@
         <v>1000737</v>
       </c>
       <c r="C103" s="66" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="D103" s="41" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="E103" s="13">
         <v>7</v>
@@ -10440,16 +10430,16 @@
         <v>1</v>
       </c>
       <c r="G103" s="41" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="H103" s="41" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="I103" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J103" s="50" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="K103" s="41"/>
       <c r="L103" s="41"/>
@@ -10462,10 +10452,10 @@
         <v>1000737</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="D104" s="41" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="E104" s="13">
         <v>8</v>
@@ -10474,16 +10464,16 @@
         <v>1</v>
       </c>
       <c r="G104" s="41" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="H104" s="41" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="I104" s="41" t="s">
         <v>295</v>
       </c>
       <c r="J104" s="50" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="K104" s="41"/>
       <c r="L104" s="41"/>
@@ -10496,10 +10486,10 @@
         <v>1000737</v>
       </c>
       <c r="C105" s="66" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="D105" s="41" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="E105" s="13">
         <v>9</v>
@@ -10508,16 +10498,16 @@
         <v>1</v>
       </c>
       <c r="G105" s="41" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="H105" s="41" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="I105" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J105" s="50" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="K105" s="41"/>
       <c r="L105" s="41"/>
@@ -11755,7 +11745,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="54" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="H148" s="54" t="s">
         <v>383</v>
@@ -12022,7 +12012,7 @@
         <v>352</v>
       </c>
       <c r="I157" s="54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J157" s="54"/>
       <c r="K157" s="54"/>
@@ -12109,7 +12099,7 @@
         <v>355</v>
       </c>
       <c r="I160" s="54" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -12355,19 +12345,19 @@
         <v>1000775</v>
       </c>
       <c r="C169" s="64" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="D169" s="42" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="E169" s="3">
         <v>1</v>
       </c>
       <c r="G169" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H169" s="42" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="I169" s="42" t="s">
         <v>432</v>
@@ -12385,19 +12375,19 @@
         <v>1000775</v>
       </c>
       <c r="C170" s="64" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="E170" s="3">
         <v>2</v>
       </c>
       <c r="G170" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="I170" s="42" t="s">
         <v>432</v>
@@ -12414,19 +12404,19 @@
         <v>1000775</v>
       </c>
       <c r="C171" s="64" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="E171" s="3">
         <v>3</v>
       </c>
       <c r="G171" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H171" s="42" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="I171" s="42" t="s">
         <v>432</v>
@@ -12452,10 +12442,10 @@
         <v>4</v>
       </c>
       <c r="G172" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H172" s="42" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="I172" s="42" t="s">
         <v>432</v>
@@ -12481,10 +12471,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="I173" s="42" t="s">
         <v>432</v>
@@ -12510,10 +12500,10 @@
         <v>6</v>
       </c>
       <c r="G174" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H174" s="42" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="I174" s="42" t="s">
         <v>432</v>
@@ -12539,10 +12529,10 @@
         <v>7</v>
       </c>
       <c r="G175" s="42" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="H175" s="42" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="I175" s="42" t="s">
         <v>432</v>
@@ -12568,10 +12558,10 @@
         <v>8</v>
       </c>
       <c r="G176" s="42" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="H176" s="42" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="I176" s="42" t="s">
         <v>432</v>
@@ -12597,10 +12587,10 @@
         <v>9</v>
       </c>
       <c r="G177" s="42" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="H177" s="42" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="I177" s="42" t="s">
         <v>237</v>
@@ -12911,7 +12901,7 @@
         <v>536</v>
       </c>
       <c r="I188" s="42" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="J188" s="42"/>
     </row>
@@ -12938,7 +12928,7 @@
         <v>537</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="J189" s="42"/>
     </row>
@@ -13640,7 +13630,7 @@
         <v>561</v>
       </c>
       <c r="I215" s="42" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J215" s="42"/>
     </row>
@@ -14084,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="G230" s="42" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="H230" s="42" t="s">
         <v>576</v>
@@ -14111,10 +14101,10 @@
         <v>1</v>
       </c>
       <c r="G231" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H231" s="42" t="s">
-        <v>634</v>
+        <v>766</v>
       </c>
       <c r="I231" s="3" t="s">
         <v>338</v>
@@ -14137,10 +14127,10 @@
         <v>1</v>
       </c>
       <c r="G232" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H232" s="42" t="s">
-        <v>635</v>
+        <v>767</v>
       </c>
       <c r="I232" s="42" t="s">
         <v>272</v>
@@ -14164,13 +14154,13 @@
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H233" s="42" t="s">
-        <v>636</v>
+        <v>288</v>
       </c>
       <c r="I233" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J233" s="42"/>
     </row>
@@ -14182,7 +14172,7 @@
         <v>1000790</v>
       </c>
       <c r="C234" s="64" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D234" s="42" t="s">
         <v>595</v>
@@ -14191,13 +14181,13 @@
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H234" s="42" t="s">
-        <v>637</v>
+        <v>768</v>
       </c>
       <c r="I234" s="42" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="J234" s="42"/>
     </row>
@@ -14209,7 +14199,7 @@
         <v>1000790</v>
       </c>
       <c r="C235" s="64" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D235" s="42" t="s">
         <v>596</v>
@@ -14218,13 +14208,13 @@
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H235" s="42" t="s">
-        <v>638</v>
+        <v>769</v>
       </c>
       <c r="I235" s="42" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J235" s="42"/>
     </row>
@@ -14236,7 +14226,7 @@
         <v>1000790</v>
       </c>
       <c r="C236" s="64" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>597</v>
@@ -14245,13 +14235,13 @@
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H236" s="42" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="I236" s="42" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J236" s="42"/>
     </row>
@@ -14263,22 +14253,22 @@
         <v>1000791</v>
       </c>
       <c r="C237" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E237" s="3">
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H237" s="42" t="s">
-        <v>640</v>
+        <v>288</v>
       </c>
       <c r="I237" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J237" s="42"/>
     </row>
@@ -14290,22 +14280,22 @@
         <v>1000791</v>
       </c>
       <c r="C238" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E238" s="3">
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H238" s="42" t="s">
-        <v>641</v>
+        <v>770</v>
       </c>
       <c r="I238" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J238" s="42"/>
     </row>
@@ -14317,22 +14307,22 @@
         <v>1000791</v>
       </c>
       <c r="C239" s="64" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D239" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E239" s="3">
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H239" s="42" t="s">
-        <v>642</v>
+        <v>771</v>
       </c>
       <c r="I239" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J239" s="42"/>
     </row>
@@ -14344,22 +14334,22 @@
         <v>1000791</v>
       </c>
       <c r="C240" s="64" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D240" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E240" s="3">
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H240" s="42" t="s">
-        <v>643</v>
+        <v>772</v>
       </c>
       <c r="I240" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J240" s="42"/>
     </row>
@@ -14371,22 +14361,22 @@
         <v>1000792</v>
       </c>
       <c r="C241" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D241" s="42" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E241" s="3">
         <v>1</v>
       </c>
       <c r="G241" s="42" t="s">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="H241" s="42" t="s">
-        <v>644</v>
+        <v>773</v>
       </c>
       <c r="I241" s="42" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="J241" s="42"/>
     </row>
@@ -14398,7 +14388,7 @@
         <v>1000793</v>
       </c>
       <c r="C242" s="64" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D242" s="42" t="s">
         <v>277</v>
@@ -14407,10 +14397,10 @@
         <v>1</v>
       </c>
       <c r="G242" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H242" s="42" t="s">
-        <v>634</v>
+        <v>766</v>
       </c>
       <c r="I242" s="3" t="s">
         <v>338</v>
@@ -14424,7 +14414,7 @@
         <v>1000794</v>
       </c>
       <c r="C243" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D243" s="42" t="s">
         <v>593</v>
@@ -14433,10 +14423,10 @@
         <v>1</v>
       </c>
       <c r="G243" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H243" s="42" t="s">
-        <v>635</v>
+        <v>767</v>
       </c>
       <c r="I243" s="42" t="s">
         <v>272</v>
@@ -14451,22 +14441,22 @@
         <v>1000795</v>
       </c>
       <c r="C244" s="64" t="s">
-        <v>629</v>
+        <v>598</v>
       </c>
       <c r="D244" s="42" t="s">
-        <v>669</v>
+        <v>760</v>
       </c>
       <c r="E244" s="3">
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H244" s="42" t="s">
-        <v>636</v>
+        <v>288</v>
       </c>
       <c r="I244" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J244" s="42"/>
     </row>
@@ -14478,22 +14468,22 @@
         <v>1000795</v>
       </c>
       <c r="C245" s="64" t="s">
-        <v>600</v>
+        <v>764</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>623</v>
+        <v>761</v>
       </c>
       <c r="E245" s="3">
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H245" s="42" t="s">
-        <v>637</v>
+        <v>768</v>
       </c>
       <c r="I245" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J245" s="42"/>
     </row>
@@ -14505,22 +14495,22 @@
         <v>1000795</v>
       </c>
       <c r="C246" s="64" t="s">
-        <v>626</v>
+        <v>765</v>
       </c>
       <c r="D246" s="42" t="s">
-        <v>624</v>
+        <v>762</v>
       </c>
       <c r="E246" s="3">
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H246" s="42" t="s">
-        <v>638</v>
+        <v>769</v>
       </c>
       <c r="I246" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J246" s="42"/>
     </row>
@@ -14532,22 +14522,22 @@
         <v>1000795</v>
       </c>
       <c r="C247" s="64" t="s">
-        <v>630</v>
+        <v>592</v>
       </c>
       <c r="D247" s="42" t="s">
-        <v>625</v>
+        <v>763</v>
       </c>
       <c r="E247" s="3">
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H247" s="42" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="I247" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J247" s="42"/>
     </row>
@@ -14559,22 +14549,22 @@
         <v>1000796</v>
       </c>
       <c r="C248" s="64" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D248" s="42" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E248" s="3">
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H248" s="42" t="s">
-        <v>640</v>
+        <v>288</v>
       </c>
       <c r="I248" s="42" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J248" s="42"/>
     </row>
@@ -14586,22 +14576,22 @@
         <v>1000796</v>
       </c>
       <c r="C249" s="64" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D249" s="42" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E249" s="3">
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H249" s="42" t="s">
-        <v>641</v>
+        <v>770</v>
       </c>
       <c r="I249" s="42" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J249" s="42"/>
     </row>
@@ -14613,22 +14603,22 @@
         <v>1000796</v>
       </c>
       <c r="C250" s="64" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D250" s="42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E250" s="3">
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H250" s="42" t="s">
-        <v>642</v>
+        <v>771</v>
       </c>
       <c r="I250" s="42" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J250" s="42"/>
     </row>
@@ -14640,22 +14630,22 @@
         <v>1000796</v>
       </c>
       <c r="C251" s="64" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D251" s="42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E251" s="3">
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="H251" s="42" t="s">
-        <v>643</v>
+        <v>772</v>
       </c>
       <c r="I251" s="42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J251" s="42"/>
     </row>
@@ -14667,7 +14657,7 @@
         <v>1000797</v>
       </c>
       <c r="C252" s="64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D252" s="42" t="s">
         <v>202</v>
@@ -14676,13 +14666,13 @@
         <v>1</v>
       </c>
       <c r="G252" s="42" t="s">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="H252" s="42" t="s">
-        <v>645</v>
+        <v>773</v>
       </c>
       <c r="I252" s="42" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="J252" s="42"/>
     </row>
@@ -14694,7 +14684,7 @@
         <v>1000801</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="D253" s="42" t="s">
         <v>276</v>
@@ -14706,7 +14696,7 @@
         <v>310</v>
       </c>
       <c r="H253" s="42" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="I253" s="3" t="s">
         <v>270</v>
@@ -14720,7 +14710,7 @@
         <v>1000802</v>
       </c>
       <c r="C254" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D254" s="42" t="s">
         <v>252</v>
@@ -14729,10 +14719,10 @@
         <v>1</v>
       </c>
       <c r="G254" s="42" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="H254" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I254" s="42" t="s">
         <v>272</v>
@@ -14747,7 +14737,7 @@
         <v>1000803</v>
       </c>
       <c r="C255" s="64" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="D255" s="42" t="s">
         <v>594</v>
@@ -14759,7 +14749,7 @@
         <v>310</v>
       </c>
       <c r="H255" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I255" s="42" t="s">
         <v>234</v>
@@ -14774,10 +14764,10 @@
         <v>1000803</v>
       </c>
       <c r="C256" s="64" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="D256" s="42" t="s">
-        <v>657</v>
+        <v>638</v>
       </c>
       <c r="E256" s="3">
         <v>2</v>
@@ -14786,7 +14776,7 @@
         <v>310</v>
       </c>
       <c r="H256" s="42" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="I256" s="42" t="s">
         <v>234</v>
@@ -14801,10 +14791,10 @@
         <v>1000803</v>
       </c>
       <c r="C257" s="64" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="D257" s="42" t="s">
-        <v>658</v>
+        <v>639</v>
       </c>
       <c r="E257" s="3">
         <v>3</v>
@@ -14813,7 +14803,7 @@
         <v>310</v>
       </c>
       <c r="H257" s="42" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="I257" s="42" t="s">
         <v>234</v>
@@ -14828,7 +14818,7 @@
         <v>1000803</v>
       </c>
       <c r="C258" s="64" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="D258" s="42" t="s">
         <v>596</v>
@@ -14840,7 +14830,7 @@
         <v>310</v>
       </c>
       <c r="H258" s="42" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="I258" s="42" t="s">
         <v>234</v>
@@ -14855,10 +14845,10 @@
         <v>1000803</v>
       </c>
       <c r="C259" s="64" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="D259" s="42" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="E259" s="3">
         <v>5</v>
@@ -14867,7 +14857,7 @@
         <v>310</v>
       </c>
       <c r="H259" s="42" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="I259" s="42" t="s">
         <v>234</v>
@@ -14882,26 +14872,26 @@
         <v>1000803</v>
       </c>
       <c r="C260" s="64" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="D260" s="42" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="E260" s="3">
         <v>6</v>
       </c>
       <c r="G260" s="42" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="H260" s="42" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="I260" s="42" t="s">
         <v>234</v>
       </c>
       <c r="J260" s="42"/>
       <c r="M260" s="42" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.2">
@@ -14912,26 +14902,26 @@
         <v>1000804</v>
       </c>
       <c r="C261" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D261" s="42" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="E261" s="3">
         <v>1</v>
       </c>
       <c r="G261" s="42" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="H261" s="42" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="I261" s="42" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="J261" s="42"/>
       <c r="M261" s="3" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.2">
@@ -14942,7 +14932,7 @@
         <v>1000805</v>
       </c>
       <c r="C262" s="64" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>276</v>
@@ -14954,7 +14944,7 @@
         <v>310</v>
       </c>
       <c r="H262" s="42" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="I262" s="3" t="s">
         <v>270</v>
@@ -14968,7 +14958,7 @@
         <v>1000806</v>
       </c>
       <c r="C263" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>252</v>
@@ -14980,7 +14970,7 @@
         <v>310</v>
       </c>
       <c r="H263" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I263" s="42" t="s">
         <v>272</v>
@@ -14995,10 +14985,10 @@
         <v>1000807</v>
       </c>
       <c r="C264" s="64" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="D264" s="42" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="E264" s="3">
         <v>1</v>
@@ -15007,7 +14997,7 @@
         <v>310</v>
       </c>
       <c r="H264" s="42" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="I264" s="42" t="s">
         <v>237</v>
@@ -15022,10 +15012,10 @@
         <v>1000807</v>
       </c>
       <c r="C265" s="64" t="s">
-        <v>664</v>
+        <v>645</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="E265" s="3">
         <v>2</v>
@@ -15034,7 +15024,7 @@
         <v>310</v>
       </c>
       <c r="H265" s="42" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="I265" s="42" t="s">
         <v>237</v>
@@ -15049,10 +15039,10 @@
         <v>1000807</v>
       </c>
       <c r="C266" s="64" t="s">
-        <v>665</v>
+        <v>646</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="E266" s="3">
         <v>3</v>
@@ -15061,7 +15051,7 @@
         <v>310</v>
       </c>
       <c r="H266" s="42" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="I266" s="42" t="s">
         <v>237</v>
@@ -15076,10 +15066,10 @@
         <v>1000807</v>
       </c>
       <c r="C267" s="64" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
       <c r="D267" s="42" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="E267" s="3">
         <v>4</v>
@@ -15088,7 +15078,7 @@
         <v>310</v>
       </c>
       <c r="H267" s="42" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="I267" s="42" t="s">
         <v>237</v>
@@ -15103,10 +15093,10 @@
         <v>1000807</v>
       </c>
       <c r="C268" s="64" t="s">
-        <v>667</v>
+        <v>648</v>
       </c>
       <c r="D268" s="42" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="E268" s="3">
         <v>5</v>
@@ -15115,7 +15105,7 @@
         <v>310</v>
       </c>
       <c r="H268" s="42" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="I268" s="42" t="s">
         <v>237</v>
@@ -15130,26 +15120,26 @@
         <v>1000807</v>
       </c>
       <c r="C269" s="64" t="s">
-        <v>668</v>
+        <v>649</v>
       </c>
       <c r="D269" s="42" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="E269" s="3">
         <v>6</v>
       </c>
       <c r="G269" s="42" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="H269" s="42" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="I269" s="42" t="s">
         <v>237</v>
       </c>
       <c r="J269" s="42"/>
       <c r="M269" s="3" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.2">
@@ -15160,26 +15150,26 @@
         <v>1000808</v>
       </c>
       <c r="C270" s="64" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="D270" s="42" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="E270" s="3">
         <v>1</v>
       </c>
       <c r="G270" s="42" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="H270" s="42" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="I270" s="42" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="J270" s="42"/>
       <c r="M270" s="3" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
     </row>
     <row r="271" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -15190,10 +15180,10 @@
         <v>1000737</v>
       </c>
       <c r="C271" s="66" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="D271" s="41" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="E271" s="13">
         <v>10</v>
@@ -15202,16 +15192,16 @@
         <v>1</v>
       </c>
       <c r="G271" s="41" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="H271" s="41" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="I271" s="41" t="s">
         <v>238</v>
       </c>
       <c r="J271" s="41" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="K271" s="41"/>
       <c r="L271" s="41"/>
@@ -15224,10 +15214,10 @@
         <v>1000737</v>
       </c>
       <c r="C272" s="64" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="D272" s="42" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="E272" s="3">
         <v>1</v>
@@ -15239,7 +15229,7 @@
         <v>310</v>
       </c>
       <c r="H272" s="42" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="I272" s="41" t="s">
         <v>238</v>
@@ -15253,10 +15243,10 @@
         <v>1000737</v>
       </c>
       <c r="C273" s="64" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="D273" s="42" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="E273" s="3">
         <v>2</v>
@@ -15268,7 +15258,7 @@
         <v>294</v>
       </c>
       <c r="H273" s="42" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="I273" s="41" t="s">
         <v>238</v>
@@ -15282,10 +15272,10 @@
         <v>1000737</v>
       </c>
       <c r="C274" s="64" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="D274" s="42" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="E274" s="3">
         <v>3</v>
@@ -15297,7 +15287,7 @@
         <v>310</v>
       </c>
       <c r="H274" s="42" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="I274" s="41" t="s">
         <v>238</v>
@@ -15311,10 +15301,10 @@
         <v>1000737</v>
       </c>
       <c r="C275" s="64" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="D275" s="42" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="E275" s="3">
         <v>4</v>
@@ -15326,7 +15316,7 @@
         <v>294</v>
       </c>
       <c r="H275" s="42" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="I275" s="41" t="s">
         <v>238</v>
@@ -15340,10 +15330,10 @@
         <v>1000737</v>
       </c>
       <c r="C276" s="64" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="D276" s="42" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="E276" s="3">
         <v>5</v>
@@ -15355,7 +15345,7 @@
         <v>310</v>
       </c>
       <c r="H276" s="42" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="I276" s="41" t="s">
         <v>238</v>
@@ -15369,10 +15359,10 @@
         <v>1000737</v>
       </c>
       <c r="C277" s="64" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="D277" s="42" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="E277" s="3">
         <v>6</v>
@@ -15384,7 +15374,7 @@
         <v>294</v>
       </c>
       <c r="H277" s="42" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="I277" s="41" t="s">
         <v>238</v>
@@ -15398,10 +15388,10 @@
         <v>1000737</v>
       </c>
       <c r="C278" s="64" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="D278" s="42" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="E278" s="3">
         <v>7</v>
@@ -15413,7 +15403,7 @@
         <v>310</v>
       </c>
       <c r="H278" s="42" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="I278" s="41" t="s">
         <v>238</v>
@@ -15427,10 +15417,10 @@
         <v>1000737</v>
       </c>
       <c r="C279" s="64" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="E279" s="3">
         <v>8</v>
@@ -15442,7 +15432,7 @@
         <v>294</v>
       </c>
       <c r="H279" s="42" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="I279" s="41" t="s">
         <v>238</v>

--- a/config_1.11/activity_ty_task_config.xlsx
+++ b/config_1.11/activity_ty_task_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base|基础" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="776">
   <si>
     <t>index|索引</t>
   </si>
@@ -5649,6 +5649,10 @@
   </si>
   <si>
     <t>免费话费</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6285,7 +6289,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19:G20"/>
     </sheetView>
   </sheetViews>
@@ -7206,9 +7210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W279"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231:H252"/>
+      <selection pane="bottomLeft" activeCell="G244" sqref="G244:G251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -14154,7 +14158,7 @@
         <v>1</v>
       </c>
       <c r="G233" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H233" s="42" t="s">
         <v>288</v>
@@ -14181,7 +14185,7 @@
         <v>2</v>
       </c>
       <c r="G234" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H234" s="42" t="s">
         <v>768</v>
@@ -14208,7 +14212,7 @@
         <v>3</v>
       </c>
       <c r="G235" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H235" s="42" t="s">
         <v>769</v>
@@ -14235,7 +14239,7 @@
         <v>4</v>
       </c>
       <c r="G236" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H236" s="42" t="s">
         <v>627</v>
@@ -14262,7 +14266,7 @@
         <v>1</v>
       </c>
       <c r="G237" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H237" s="42" t="s">
         <v>288</v>
@@ -14289,7 +14293,7 @@
         <v>2</v>
       </c>
       <c r="G238" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H238" s="42" t="s">
         <v>770</v>
@@ -14316,7 +14320,7 @@
         <v>3</v>
       </c>
       <c r="G239" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H239" s="42" t="s">
         <v>771</v>
@@ -14343,7 +14347,7 @@
         <v>4</v>
       </c>
       <c r="G240" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H240" s="42" t="s">
         <v>772</v>
@@ -14450,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="G244" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H244" s="42" t="s">
         <v>288</v>
@@ -14477,7 +14481,7 @@
         <v>2</v>
       </c>
       <c r="G245" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H245" s="42" t="s">
         <v>768</v>
@@ -14504,7 +14508,7 @@
         <v>3</v>
       </c>
       <c r="G246" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H246" s="42" t="s">
         <v>769</v>
@@ -14531,7 +14535,7 @@
         <v>4</v>
       </c>
       <c r="G247" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H247" s="42" t="s">
         <v>627</v>
@@ -14558,7 +14562,7 @@
         <v>1</v>
       </c>
       <c r="G248" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H248" s="42" t="s">
         <v>288</v>
@@ -14585,7 +14589,7 @@
         <v>2</v>
       </c>
       <c r="G249" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H249" s="42" t="s">
         <v>770</v>
@@ -14612,7 +14616,7 @@
         <v>3</v>
       </c>
       <c r="G250" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H250" s="42" t="s">
         <v>771</v>
@@ -14639,7 +14643,7 @@
         <v>4</v>
       </c>
       <c r="G251" s="42" t="s">
-        <v>65</v>
+        <v>775</v>
       </c>
       <c r="H251" s="42" t="s">
         <v>772</v>
